--- a/burndown template(4).xlsx
+++ b/burndown template(4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\GitHub\ifb299\IFB299-Team96\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9DF8A797-DA76-4DC4-908A-EF9A0645531C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A94076CA-C70C-4314-9030-420546C029BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,6 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -121,7 +122,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2882,13 +2882,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2916,7 +2916,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>44</v>
       </c>
     </row>
@@ -2924,19 +2924,19 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3121,9 +3121,9 @@
       <c r="D44" s="2"/>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="2"/>
@@ -3171,9 +3171,9 @@
       <c r="D80" s="2"/>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D103" s="2"/>

--- a/burndown template(4).xlsx
+++ b/burndown template(4).xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\GitHub\ifb299\IFB299-Team96\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A94076CA-C70C-4314-9030-420546C029BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{622E4FF3-CD32-427B-B944-A1AE6B4FCC26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
+    <sheet name="Sprint Tasks" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Sprint Days Remaining</t>
   </si>
@@ -46,18 +47,136 @@
     <t>Sprint 1 Burndown</t>
   </si>
   <si>
-    <t>ALSO DO A SPRINT 2 BURNDOWN AS WELL</t>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Taken</t>
+  </si>
+  <si>
+    <t>Create new account page</t>
+  </si>
+  <si>
+    <t>Implementing code for verifying fields</t>
+  </si>
+  <si>
+    <t>Adding account to database</t>
+  </si>
+  <si>
+    <t>Verify story is complete (acceptance test)</t>
+  </si>
+  <si>
+    <t>Story Points: 4 Total Hours:</t>
+  </si>
+  <si>
+    <t>Story 01: Creating new account</t>
+  </si>
+  <si>
+    <t>Story 02: Different levels of authorisation/login (Access to role-specific features)</t>
+  </si>
+  <si>
+    <t>Create login page</t>
+  </si>
+  <si>
+    <t>Implementing code for verifying fields + checking if account exists</t>
+  </si>
+  <si>
+    <t>Logging in as respected used based on login details</t>
+  </si>
+  <si>
+    <t>Implementing code for hiding/showing features on pages based on level of authentication</t>
+  </si>
+  <si>
+    <t>Story 03: Search Function</t>
+  </si>
+  <si>
+    <t>Migrating database to the web server</t>
+  </si>
+  <si>
+    <t>Implementing code for search query that goes through each item in database</t>
+  </si>
+  <si>
+    <t>Displaying items on webpage that matches the query</t>
+  </si>
+  <si>
+    <t>Story Points: 8 Total Hours:</t>
+  </si>
+  <si>
+    <t>Story 04: Vehicle status and store location</t>
+  </si>
+  <si>
+    <t>Displaying vehicle status on search-list page/individual vehicle page</t>
+  </si>
+  <si>
+    <t>Story Points: 2 Total Hours:</t>
+  </si>
+  <si>
+    <t>Story 05: Online vehicle reservation</t>
+  </si>
+  <si>
+    <t>Create reservation page</t>
+  </si>
+  <si>
+    <t>Implementing code for booking/reserving a vehicle</t>
+  </si>
+  <si>
+    <t>Updating vehicle status in database</t>
+  </si>
+  <si>
+    <t>Displaying new status of vehicles on search-list page/individual vehicle page</t>
+  </si>
+  <si>
+    <t>Link to Sprint tasks</t>
+  </si>
+  <si>
+    <t>Actual Taken</t>
+  </si>
+  <si>
+    <t>Total Done</t>
+  </si>
+  <si>
+    <t>done 13/09</t>
+  </si>
+  <si>
+    <t>done 10/09</t>
+  </si>
+  <si>
+    <t>done 31/08</t>
+  </si>
+  <si>
+    <t>done 2/09</t>
+  </si>
+  <si>
+    <t>done 6/09</t>
+  </si>
+  <si>
+    <t>done 11/09</t>
+  </si>
+  <si>
+    <t>half done 4/09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -74,8 +193,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,14 +223,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -104,26 +249,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -254,15 +411,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Burn down chart'!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal Tasks Remaining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Expected</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -302,12 +451,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$A$13:$A$33</c:f>
+              <c:f>'Burn down chart'!$B$13:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -315,75 +464,105 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="29">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burn down chart'!$B$13:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -400,15 +579,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Burn down chart'!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual Tasks Remaining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Actual</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -434,86 +605,95 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$A$13:$A$33</c:f>
+              <c:f>'Burn down chart'!$C$13:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burn down chart'!$C$13:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,7 +701,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-420C-4A71-9971-542ECB6C951A}"/>
+              <c16:uniqueId val="{00000001-9FC8-42A5-992F-80C398032729}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2530,16 +2710,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>512886</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1265360</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>33703</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2568,16 +2748,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>479913</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1184763</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158994</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2870,25 +3050,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="29.85546875" style="1"/>
+    <col min="1" max="2" width="29.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="29.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2916,7 +3099,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>44</v>
       </c>
     </row>
@@ -2924,19 +3107,36 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -2951,229 +3151,761 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
+        <f>ROUND( 20/35 *A13,0)</f>
         <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
       </c>
+      <c r="D13" s="2">
+        <v>43329</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:B48" si="0">ROUND( 20/35 *A14,0)</f>
         <v>19</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43330</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43331</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43332</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43333</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43334</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43335</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43336</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43337</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43338</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43339</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43340</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43341</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>7</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43342</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>6</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <f>20-0.8</f>
+        <v>19.2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43343</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>5</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <f>20-0.8</f>
+        <v>19.2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43344</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <f>19.2-0.4</f>
+        <v>18.8</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43345</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>3</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <f>19.2-0.4</f>
+        <v>18.8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43346</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43347</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C32" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C33" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43351</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="D36" s="2">
+        <v>43352</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43353</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>43354</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D39" s="2">
+        <v>43355</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43356</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>43357</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>43358</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43359</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43360</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43361</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="D46" s="2">
+        <v>43362</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>43363</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>0</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="2">
+        <v>43364</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D80" s="2"/>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D103" s="2"/>
@@ -3221,15 +3953,558 @@
       <c r="D117" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B8:D10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F35:I72" location="'Sprint Tasks'!A1" display="'Sprint Tasks'!A1" xr:uid="{5DA362FA-CEC3-4567-BC62-BF82B353E683}"/>
+    <hyperlink ref="B8:D10" location="'Sprint Tasks'!A1" display="A1'Link to Sprint asks'" xr:uid="{34BC3387-2F11-45C4-9B7D-D5E39EFB9D52}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509F8D58-4987-4C0A-AB6D-0E47BD987F94}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>3</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>1</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>3</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>4</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>5</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="8">
+        <v>6</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37">
+        <f>SUM(F1:F36)</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/burndown template(4).xlsx
+++ b/burndown template(4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\GitHub\ifb299\IFB299-Team96\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{622E4FF3-CD32-427B-B944-A1AE6B4FCC26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D8D88BF-E5C6-4FB5-AB5C-52EC3C1368ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,6 +260,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,13 +273,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -694,6 +694,30 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,6 +1291,9 @@
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3052,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3065,13 +3092,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3102,6 +3129,9 @@
       <c r="B4" s="3">
         <v>44</v>
       </c>
+      <c r="C4" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -3115,28 +3145,28 @@
       <c r="B6" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3497,9 +3527,9 @@
       <c r="D35" s="2">
         <v>43351</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -3515,10 +3545,10 @@
       <c r="D36" s="2">
         <v>43352</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -3534,10 +3564,10 @@
       <c r="D37" s="2">
         <v>43353</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -3553,10 +3583,10 @@
       <c r="D38" s="2">
         <v>43354</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -3572,10 +3602,10 @@
       <c r="D39" s="2">
         <v>43355</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -3591,10 +3621,10 @@
       <c r="D40" s="2">
         <v>43356</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -3604,13 +3634,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="C41" s="1">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="D41" s="2">
         <v>43357</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -3620,13 +3653,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="C42" s="1">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="D42" s="2">
         <v>43358</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -3636,13 +3672,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="C43" s="1">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="D43" s="2">
         <v>43359</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -3652,13 +3691,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="C44" s="1">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="D44" s="2">
         <v>43360</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -3668,13 +3710,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="C45" s="1">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="D45" s="2">
         <v>43361</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -3684,13 +3729,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
       <c r="D46" s="2">
         <v>43362</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
@@ -3700,13 +3748,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
       <c r="D47" s="2">
         <v>43363</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
@@ -3716,167 +3767,170 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
       <c r="D48" s="2">
         <v>43364</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D66" s="2"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D67" s="2"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D68" s="2"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D69" s="2"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D70" s="2"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D71" s="2"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D72" s="2"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D73" s="2"/>
@@ -3903,9 +3957,9 @@
       <c r="D80" s="2"/>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D103" s="2"/>
@@ -3989,43 +4043,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F3">
@@ -4033,17 +4087,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F4">
@@ -4051,80 +4105,80 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F10">
@@ -4133,17 +4187,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11">
@@ -4152,17 +4206,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F12">
@@ -4170,80 +4224,80 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>6</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>1</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F18">
@@ -4251,17 +4305,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F19">
@@ -4269,17 +4323,17 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>3</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>2</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F20">
@@ -4287,143 +4341,143 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <v>4</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <v>9</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <v>1</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>2</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="5">
         <v>2</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <v>2</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="5">
         <v>3</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>1</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="5">
         <v>5</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="5">
         <v>1</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F31">
@@ -4432,70 +4486,70 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="5">
         <v>2</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="5">
         <v>2</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="5">
         <v>3</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <v>1</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="5">
         <v>4</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="5">
         <v>1</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="5">
         <v>5</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <v>1</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="5">
         <v>6</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F37">

--- a/burndown template(4).xlsx
+++ b/burndown template(4).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\GitHub\ifb299\IFB299-Team96\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D8D88BF-E5C6-4FB5-AB5C-52EC3C1368ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F7DAC26-F126-4A3D-B343-F9E8DA6152CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Sprint Days Remaining</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>half done 4/09</t>
+  </si>
+  <si>
+    <t>Sprint 2 Burndown</t>
   </si>
 </sst>
 </file>
@@ -1621,6 +1624,673 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 1 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Down C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>hart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$B$52:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-745F-4F36-9350-467765EBA3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$C$52:$C$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-745F-4F36-9350-467765EBA3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="590107240"/>
+        <c:axId val="590108552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590107240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaning</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590108552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590108552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590107240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="43137"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1701,6 +2371,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2218,6 +2928,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2806,6 +4032,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>827942</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1580416</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8C5202-0985-42CF-84B5-DDD04635B206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3079,8 +4343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A43" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3785,176 +5049,533 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>25</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45</v>
+      </c>
+      <c r="D52" s="2">
+        <v>43374</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1">
+        <f>ROUND((45/25)*A53,0)</f>
+        <v>43</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45</v>
+      </c>
+      <c r="D53" s="2">
+        <v>43375</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>23</v>
+      </c>
+      <c r="B54" s="1">
+        <f>ROUND((45/25)*A54,0)</f>
+        <v>41</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45</v>
+      </c>
+      <c r="D54" s="2">
+        <v>43376</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" ref="B55:B77" si="1">ROUND((45/25)*A55,0)</f>
+        <v>40</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45</v>
+      </c>
+      <c r="D55" s="2">
+        <v>43377</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>21</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45</v>
+      </c>
+      <c r="D56" s="2">
+        <v>43378</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>20</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45</v>
+      </c>
+      <c r="D57" s="2">
+        <v>43379</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>19</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45</v>
+      </c>
+      <c r="D58" s="2">
+        <v>43380</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>18</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45</v>
+      </c>
+      <c r="D59" s="2">
+        <v>43381</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>17</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45</v>
+      </c>
+      <c r="D60" s="2">
+        <v>43382</v>
+      </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>16</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45</v>
+      </c>
+      <c r="D61" s="2">
+        <v>43383</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>15</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2">
+        <v>43384</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45</v>
+      </c>
+      <c r="D63" s="2">
+        <v>43385</v>
+      </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45</v>
+      </c>
+      <c r="D64" s="2">
+        <v>43386</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45</v>
+      </c>
+      <c r="D65" s="2">
+        <v>43387</v>
+      </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D66" s="2"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2">
+        <v>43388</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D67" s="2"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>10</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45</v>
+      </c>
+      <c r="D67" s="2">
+        <v>43389</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D68" s="2"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>9</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45</v>
+      </c>
+      <c r="D68" s="2">
+        <v>43390</v>
+      </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D69" s="2"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2">
+        <v>43391</v>
+      </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D70" s="2"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45</v>
+      </c>
+      <c r="D70" s="2">
+        <v>43392</v>
+      </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D71" s="2"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2">
+        <v>43393</v>
+      </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D72" s="2"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2">
+        <v>43394</v>
+      </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>4</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45</v>
+      </c>
+      <c r="D73" s="2">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45</v>
+      </c>
+      <c r="D75" s="2">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="2"/>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
@@ -4010,10 +5631,10 @@
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A64:C64"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B8:D10"/>
+    <mergeCell ref="A50:C50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F35:I72" location="'Sprint Tasks'!A1" display="'Sprint Tasks'!A1" xr:uid="{5DA362FA-CEC3-4567-BC62-BF82B353E683}"/>
@@ -4029,9 +5650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509F8D58-4987-4C0A-AB6D-0E47BD987F94}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/burndown template(4).xlsx
+++ b/burndown template(4).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\GitHub\ifb299\IFB299-Team96\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F7DAC26-F126-4A3D-B343-F9E8DA6152CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9DB94AFD-790A-48AC-9386-C3934FEA468F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>Sprint Days Remaining</t>
   </si>
@@ -162,17 +162,96 @@
   </si>
   <si>
     <t>Sprint 2 Burndown</t>
+  </si>
+  <si>
+    <t>Story 06: Filter Car Details</t>
+  </si>
+  <si>
+    <t>Add filter buttons to search page</t>
+  </si>
+  <si>
+    <t>Implement code for filtering vehicles</t>
+  </si>
+  <si>
+    <t>Story 12: Customer Information</t>
+  </si>
+  <si>
+    <t>Create edit information page</t>
+  </si>
+  <si>
+    <t>Implementing code for saving updated details to database</t>
+  </si>
+  <si>
+    <t>Create page for a customer profile page</t>
+  </si>
+  <si>
+    <t>Implementing code to retrieve appropriate information from database</t>
+  </si>
+  <si>
+    <t>Story Points: 6 Total Hours:</t>
+  </si>
+  <si>
+    <t>Adding pages for editing and adding data (management page)</t>
+  </si>
+  <si>
+    <t>Adding page and code for car recommendations</t>
+  </si>
+  <si>
+    <t>Adding page and code for data analytics</t>
+  </si>
+  <si>
+    <t>Creating code to update data in the database (django admin)</t>
+  </si>
+  <si>
+    <t>Story Points: 18 Total Hours:</t>
+  </si>
+  <si>
+    <t>Story 11: Management/Analytics</t>
+  </si>
+  <si>
+    <t>Story 09: Customer Reviews</t>
+  </si>
+  <si>
+    <t>Creating pages for writing and viewing reviews</t>
+  </si>
+  <si>
+    <t>Add code to add reviews to database and link them with appropriate vehicles</t>
+  </si>
+  <si>
+    <t>Story ??: Store Interface</t>
+  </si>
+  <si>
+    <t>Car Status (Location,availability), create page for store</t>
+  </si>
+  <si>
+    <t>Car return notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done 8/10 </t>
+  </si>
+  <si>
+    <t>done 9/10</t>
+  </si>
+  <si>
+    <t>done 11/10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -254,30 +333,35 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1900,64 +1984,22 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4343,19 +4385,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="29.83203125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="29.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="29.85546875" style="1"/>
+    <col min="1" max="2" width="29.83203125" style="1"/>
+    <col min="3" max="3" width="26.71875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.27734375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="29.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -4364,7 +4406,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4375,7 +4417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -4386,7 +4428,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4397,7 +4439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4405,34 +4447,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -4443,7 +4485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>35</v>
       </c>
@@ -4458,7 +4500,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>34</v>
       </c>
@@ -4473,7 +4515,7 @@
         <v>43330</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>33</v>
       </c>
@@ -4488,7 +4530,7 @@
         <v>43331</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>32</v>
       </c>
@@ -4503,7 +4545,7 @@
         <v>43332</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>31</v>
       </c>
@@ -4518,7 +4560,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>30</v>
       </c>
@@ -4533,7 +4575,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>29</v>
       </c>
@@ -4548,7 +4590,7 @@
         <v>43335</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>28</v>
       </c>
@@ -4563,7 +4605,7 @@
         <v>43336</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>27</v>
       </c>
@@ -4578,7 +4620,7 @@
         <v>43337</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>26</v>
       </c>
@@ -4593,7 +4635,7 @@
         <v>43338</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -4608,7 +4650,7 @@
         <v>43339</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -4623,7 +4665,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4638,7 +4680,7 @@
         <v>43341</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -4653,7 +4695,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -4669,7 +4711,7 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>20</v>
       </c>
@@ -4685,7 +4727,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>19</v>
       </c>
@@ -4701,7 +4743,7 @@
         <v>43345</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>18</v>
       </c>
@@ -4717,7 +4759,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>17</v>
       </c>
@@ -4732,7 +4774,7 @@
         <v>43347</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>16</v>
       </c>
@@ -4747,7 +4789,7 @@
         <v>43348</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>15</v>
       </c>
@@ -4762,7 +4804,7 @@
         <v>43349</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>14</v>
       </c>
@@ -4777,7 +4819,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>13</v>
       </c>
@@ -4795,7 +4837,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>12</v>
       </c>
@@ -4814,7 +4856,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -4833,7 +4875,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>10</v>
       </c>
@@ -4852,7 +4894,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>9</v>
       </c>
@@ -4871,7 +4913,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -4890,7 +4932,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -4909,7 +4951,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -4928,7 +4970,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -4947,7 +4989,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -4966,7 +5008,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -4985,7 +5027,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -5004,7 +5046,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -5023,7 +5065,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -5042,13 +5084,13 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
         <v>46</v>
       </c>
@@ -5059,7 +5101,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -5074,7 +5116,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>25</v>
       </c>
@@ -5092,7 +5134,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>24</v>
       </c>
@@ -5111,7 +5153,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>23</v>
       </c>
@@ -5130,7 +5172,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>22</v>
       </c>
@@ -5149,7 +5191,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>21</v>
       </c>
@@ -5168,7 +5210,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>20</v>
       </c>
@@ -5187,7 +5229,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>19</v>
       </c>
@@ -5196,7 +5238,7 @@
         <v>34</v>
       </c>
       <c r="C58" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2">
         <v>43380</v>
@@ -5206,7 +5248,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>18</v>
       </c>
@@ -5215,7 +5257,7 @@
         <v>32</v>
       </c>
       <c r="C59" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D59" s="2">
         <v>43381</v>
@@ -5225,7 +5267,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>17</v>
       </c>
@@ -5234,7 +5276,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D60" s="2">
         <v>43382</v>
@@ -5244,7 +5286,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>16</v>
       </c>
@@ -5253,7 +5295,7 @@
         <v>29</v>
       </c>
       <c r="C61" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2">
         <v>43383</v>
@@ -5263,7 +5305,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>15</v>
       </c>
@@ -5272,7 +5314,7 @@
         <v>27</v>
       </c>
       <c r="C62" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D62" s="2">
         <v>43384</v>
@@ -5282,7 +5324,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>14</v>
       </c>
@@ -5291,7 +5333,7 @@
         <v>25</v>
       </c>
       <c r="C63" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D63" s="2">
         <v>43385</v>
@@ -5301,16 +5343,13 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>13</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
-      </c>
-      <c r="C64" s="1">
-        <v>45</v>
       </c>
       <c r="D64" s="2">
         <v>43386</v>
@@ -5320,16 +5359,13 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>12</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
-      </c>
-      <c r="C65" s="1">
-        <v>45</v>
       </c>
       <c r="D65" s="2">
         <v>43387</v>
@@ -5339,16 +5375,13 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>11</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
-      </c>
-      <c r="C66" s="1">
-        <v>45</v>
       </c>
       <c r="D66" s="2">
         <v>43388</v>
@@ -5358,16 +5391,13 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>10</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
-      </c>
-      <c r="C67" s="1">
-        <v>45</v>
       </c>
       <c r="D67" s="2">
         <v>43389</v>
@@ -5377,16 +5407,13 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>9</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
-      </c>
-      <c r="C68" s="1">
-        <v>45</v>
       </c>
       <c r="D68" s="2">
         <v>43390</v>
@@ -5396,16 +5423,13 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>8</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
-      </c>
-      <c r="C69" s="1">
-        <v>45</v>
       </c>
       <c r="D69" s="2">
         <v>43391</v>
@@ -5415,16 +5439,13 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>7</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
-      </c>
-      <c r="C70" s="1">
-        <v>45</v>
       </c>
       <c r="D70" s="2">
         <v>43392</v>
@@ -5434,16 +5455,13 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>6</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
-      </c>
-      <c r="C71" s="1">
-        <v>45</v>
       </c>
       <c r="D71" s="2">
         <v>43393</v>
@@ -5453,16 +5471,13 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>5</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
-      </c>
-      <c r="C72" s="1">
-        <v>45</v>
       </c>
       <c r="D72" s="2">
         <v>43394</v>
@@ -5472,7 +5487,7 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>4</v>
       </c>
@@ -5480,14 +5495,11 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C73" s="1">
-        <v>45</v>
-      </c>
       <c r="D73" s="2">
         <v>43395</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -5495,14 +5507,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C74" s="1">
-        <v>45</v>
-      </c>
       <c r="D74" s="2">
         <v>43396</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -5510,14 +5519,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C75" s="1">
-        <v>45</v>
-      </c>
       <c r="D75" s="2">
         <v>43397</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -5525,14 +5531,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C76" s="1">
-        <v>45</v>
-      </c>
       <c r="D76" s="2">
         <v>43398</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -5540,91 +5543,88 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C77" s="1">
-        <v>45</v>
-      </c>
       <c r="D77" s="2">
         <v>43399</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D87" s="2"/>
     </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="8"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D117" s="2"/>
     </row>
   </sheetData>
@@ -5648,20 +5648,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509F8D58-4987-4C0A-AB6D-0E47BD987F94}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="89" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="75.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.71875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5736,7 +5736,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5749,7 +5749,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
@@ -5760,7 +5760,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>16</v>
@@ -5879,7 +5879,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
@@ -5888,7 +5888,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5">
         <v>2</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5">
         <v>3</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
         <v>4</v>
       </c>
@@ -5972,7 +5972,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>27</v>
@@ -5983,7 +5983,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -6022,7 +6022,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
         <v>3</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>30</v>
@@ -6059,7 +6059,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -6117,7 +6117,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -6143,11 +6143,11 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5">
         <v>5</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="5">
@@ -6156,7 +6156,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>30</v>
@@ -6167,7 +6167,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E37" s="7" t="s">
         <v>38</v>
       </c>
@@ -6175,6 +6175,454 @@
         <f>SUM(F1:F36)</f>
         <v>10.799999999999999</v>
       </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5">
+        <v>1</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5">
+        <v>2</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5">
+        <v>3</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5"/>
+      <c r="B44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="5">
+        <v>10</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5">
+        <v>1</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5">
+        <v>2</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5">
+        <v>3</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5">
+        <v>4</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5">
+        <v>5</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5"/>
+      <c r="B52" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="5">
+        <v>5</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="5">
+        <v>1</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="5">
+        <v>2</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="5">
+        <v>3</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="5">
+        <v>4</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="5">
+        <v>4</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="5">
+        <v>5</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="5"/>
+      <c r="B60" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="5">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="5">
+        <v>1</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="5">
+        <v>2</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="5">
+        <v>3</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="5"/>
+      <c r="B66" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="5">
+        <v>5</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="5">
+        <v>1</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="5">
+        <v>2</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="5">
+        <v>3</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="5"/>
+      <c r="B72" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="5">
+        <v>5</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/burndown template(4).xlsx
+++ b/burndown template(4).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaari\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\GitHub\ifb299\IFB299-Team96\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9DB94AFD-790A-48AC-9386-C3934FEA468F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2330DCB-5C70-4F8E-9D80-094334CCE7D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{17158905-1468-4D0B-BDC3-3B4525E874D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
@@ -346,6 +346,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,11 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1743,7 +1743,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Sprint 1 Burn</a:t>
+              <a:t>Sprint 2 Burn</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
@@ -1821,6 +1821,93 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$52:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Burn down chart'!$B$52:$B$87</c:f>
@@ -1959,6 +2046,93 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$52:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Burn down chart'!$C$52:$C$87</c:f>
@@ -2000,6 +2174,27 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2092,7 +2287,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4082,13 +4277,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>827942</xdr:colOff>
+      <xdr:colOff>827941</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>153865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1580416</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1886138</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>68873</xdr:rowOff>
     </xdr:to>
@@ -4385,28 +4580,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.83203125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="29.83203125" style="1"/>
-    <col min="3" max="3" width="26.71875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.27734375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="29.83203125" style="1"/>
+    <col min="1" max="2" width="29.85546875" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="29.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4417,7 +4612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -4428,7 +4623,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4439,7 +4634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4447,34 +4642,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -4485,7 +4680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>35</v>
       </c>
@@ -4500,7 +4695,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>34</v>
       </c>
@@ -4515,7 +4710,7 @@
         <v>43330</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>33</v>
       </c>
@@ -4530,7 +4725,7 @@
         <v>43331</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32</v>
       </c>
@@ -4545,7 +4740,7 @@
         <v>43332</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>31</v>
       </c>
@@ -4560,7 +4755,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>30</v>
       </c>
@@ -4575,7 +4770,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>29</v>
       </c>
@@ -4590,7 +4785,7 @@
         <v>43335</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>28</v>
       </c>
@@ -4605,7 +4800,7 @@
         <v>43336</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>27</v>
       </c>
@@ -4620,7 +4815,7 @@
         <v>43337</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>26</v>
       </c>
@@ -4635,7 +4830,7 @@
         <v>43338</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -4650,7 +4845,7 @@
         <v>43339</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -4665,7 +4860,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4680,7 +4875,7 @@
         <v>43341</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -4695,7 +4890,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -4711,7 +4906,7 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>20</v>
       </c>
@@ -4727,7 +4922,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>19</v>
       </c>
@@ -4743,7 +4938,7 @@
         <v>43345</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>18</v>
       </c>
@@ -4759,7 +4954,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>17</v>
       </c>
@@ -4774,7 +4969,7 @@
         <v>43347</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>16</v>
       </c>
@@ -4789,7 +4984,7 @@
         <v>43348</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>15</v>
       </c>
@@ -4804,7 +4999,7 @@
         <v>43349</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>14</v>
       </c>
@@ -4819,7 +5014,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>13</v>
       </c>
@@ -4837,7 +5032,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>12</v>
       </c>
@@ -4856,7 +5051,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -4875,7 +5070,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>10</v>
       </c>
@@ -4894,7 +5089,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>9</v>
       </c>
@@ -4913,7 +5108,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -4932,7 +5127,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -4951,7 +5146,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -4970,7 +5165,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -4989,7 +5184,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -5008,7 +5203,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -5027,7 +5222,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -5046,7 +5241,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -5065,7 +5260,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -5084,24 +5279,24 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -5116,7 +5311,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>25</v>
       </c>
@@ -5134,7 +5329,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>24</v>
       </c>
@@ -5153,7 +5348,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>23</v>
       </c>
@@ -5172,7 +5367,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>22</v>
       </c>
@@ -5191,7 +5386,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>21</v>
       </c>
@@ -5210,7 +5405,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>20</v>
       </c>
@@ -5229,7 +5424,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>19</v>
       </c>
@@ -5248,7 +5443,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>18</v>
       </c>
@@ -5267,7 +5462,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>17</v>
       </c>
@@ -5286,7 +5481,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>16</v>
       </c>
@@ -5305,7 +5500,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>15</v>
       </c>
@@ -5324,7 +5519,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>14</v>
       </c>
@@ -5343,13 +5538,16 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>13</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
+      </c>
+      <c r="C64" s="1">
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>43386</v>
@@ -5359,13 +5557,16 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>12</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
+      </c>
+      <c r="C65" s="1">
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>43387</v>
@@ -5375,13 +5576,16 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>11</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
+      </c>
+      <c r="C66" s="1">
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>43388</v>
@@ -5391,13 +5595,16 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>10</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
+      </c>
+      <c r="C67" s="1">
+        <v>25</v>
       </c>
       <c r="D67" s="2">
         <v>43389</v>
@@ -5407,13 +5614,16 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>9</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
+      </c>
+      <c r="C68" s="1">
+        <v>22</v>
       </c>
       <c r="D68" s="2">
         <v>43390</v>
@@ -5423,13 +5633,16 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>8</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
+      </c>
+      <c r="C69" s="1">
+        <v>19</v>
       </c>
       <c r="D69" s="2">
         <v>43391</v>
@@ -5439,13 +5652,16 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>7</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
+      </c>
+      <c r="C70" s="1">
+        <v>17</v>
       </c>
       <c r="D70" s="2">
         <v>43392</v>
@@ -5455,7 +5671,7 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>6</v>
       </c>
@@ -5471,7 +5687,7 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -5487,7 +5703,7 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>4</v>
       </c>
@@ -5499,7 +5715,7 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -5511,7 +5727,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -5523,7 +5739,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -5535,7 +5751,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -5547,84 +5763,84 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="2"/>
     </row>
-    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="8"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="2"/>
     </row>
   </sheetData>
@@ -5650,18 +5866,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509F8D58-4987-4C0A-AB6D-0E47BD987F94}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="75.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.71875" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -5670,7 +5888,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -5687,7 +5905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5705,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5723,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5736,7 +5954,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5749,7 +5967,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
@@ -5760,7 +5978,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -5769,7 +5987,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -5786,7 +6004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -5805,7 +6023,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -5824,7 +6042,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -5842,7 +6060,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -5855,7 +6073,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -5868,7 +6086,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>16</v>
@@ -5879,7 +6097,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
@@ -5888,7 +6106,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -5905,7 +6123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -5923,7 +6141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2</v>
       </c>
@@ -5941,7 +6159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>3</v>
       </c>
@@ -5959,7 +6177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>4</v>
       </c>
@@ -5972,7 +6190,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>27</v>
@@ -5983,7 +6201,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -5992,7 +6210,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -6009,7 +6227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -6022,7 +6240,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -6035,7 +6253,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>3</v>
       </c>
@@ -6048,7 +6266,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>30</v>
@@ -6059,7 +6277,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -6068,7 +6286,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -6085,7 +6303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -6104,7 +6322,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -6117,7 +6335,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -6130,7 +6348,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -6143,11 +6361,11 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>5</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="5">
@@ -6156,7 +6374,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>30</v>
@@ -6167,7 +6385,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E37" s="7" t="s">
         <v>38</v>
       </c>
@@ -6176,8 +6394,8 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="4"/>
@@ -6185,7 +6403,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
@@ -6202,11 +6420,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>1</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="5">
@@ -6214,12 +6432,15 @@
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>2</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="5">
@@ -6227,8 +6448,11 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>3</v>
       </c>
@@ -6241,9 +6465,9 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="5">
@@ -6252,8 +6476,8 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="4"/>
@@ -6261,7 +6485,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -6278,11 +6502,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>1</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="5">
@@ -6291,11 +6515,11 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>2</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="5">
@@ -6304,11 +6528,11 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>3</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="5">
@@ -6317,11 +6541,11 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>4</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="5">
@@ -6330,11 +6554,11 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>5</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="5">
@@ -6343,9 +6567,9 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="5">
@@ -6354,8 +6578,8 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B53" s="4"/>
@@ -6363,7 +6587,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>8</v>
       </c>
@@ -6380,11 +6604,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>1</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C55" s="5">
@@ -6393,15 +6617,19 @@
       <c r="D55" s="5">
         <v>2</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55">
+        <f>18/5</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>2</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="5">
@@ -6410,15 +6638,19 @@
       <c r="D56" s="5">
         <v>2</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56">
+        <f>18/5</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>3</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5">
@@ -6427,15 +6659,19 @@
       <c r="D57" s="5">
         <v>3</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57">
+        <f>18/5</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>4</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5">
@@ -6443,12 +6679,16 @@
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58">
+        <f>18/5</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>5</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="5">
@@ -6456,10 +6696,14 @@
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59">
+        <f>18/5</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5">
@@ -6468,8 +6712,8 @@
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="4"/>
@@ -6477,7 +6721,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>8</v>
       </c>
@@ -6494,11 +6738,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>1</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5">
@@ -6507,15 +6751,15 @@
       <c r="D63" s="5">
         <v>2</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>2</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5">
@@ -6524,11 +6768,11 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>3</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="5">
@@ -6537,9 +6781,9 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="5">
@@ -6547,9 +6791,12 @@
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="12" t="s">
+      <c r="F66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="4"/>
@@ -6557,7 +6804,7 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>8</v>
       </c>
@@ -6574,11 +6821,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>1</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C69" s="5">
@@ -6587,11 +6834,11 @@
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>2</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C70" s="5">
@@ -6600,11 +6847,11 @@
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>3</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C71" s="5">
@@ -6613,9 +6860,9 @@
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C72" s="5">

--- a/burndown template(4).xlsx
+++ b/burndown template(4).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\GitHub\ifb299\IFB299-Team96\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2330DCB-5C70-4F8E-9D80-094334CCE7D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{33250D2D-5C03-4754-83DA-78F64B7C7959}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{17158905-1468-4D0B-BDC3-3B4525E874D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{17158905-1468-4D0B-BDC3-3B4525E874D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
@@ -2195,6 +2195,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4580,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5679,6 +5700,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="C71" s="1">
+        <v>15</v>
+      </c>
       <c r="D71" s="2">
         <v>43393</v>
       </c>
@@ -5695,6 +5719,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
+      <c r="C72" s="1">
+        <v>11</v>
+      </c>
       <c r="D72" s="2">
         <v>43394</v>
       </c>
@@ -5711,6 +5738,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
+      <c r="C73" s="1">
+        <v>5</v>
+      </c>
       <c r="D73" s="2">
         <v>43395</v>
       </c>
@@ -5723,6 +5753,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="C74" s="1">
+        <v>4</v>
+      </c>
       <c r="D74" s="2">
         <v>43396</v>
       </c>
@@ -5735,6 +5768,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="C75" s="1">
+        <v>4</v>
+      </c>
       <c r="D75" s="2">
         <v>43397</v>
       </c>
@@ -5747,6 +5783,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
       <c r="D76" s="2">
         <v>43398</v>
       </c>
@@ -5757,6 +5796,9 @@
       </c>
       <c r="B77" s="1">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="2">
@@ -5866,7 +5908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509F8D58-4987-4C0A-AB6D-0E47BD987F94}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
